--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sectm1a-Cd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sectm1a-Cd7.xlsx
@@ -537,10 +537,10 @@
         <v>0.256356</v>
       </c>
       <c r="I2">
-        <v>0.4757968273529908</v>
+        <v>0.2518466851032267</v>
       </c>
       <c r="J2">
-        <v>0.4757968273529908</v>
+        <v>0.2518466851032267</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -549,10 +549,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8282163333333333</v>
+        <v>0.8170803333333333</v>
       </c>
       <c r="N2">
-        <v>2.484649</v>
+        <v>2.451241</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.07077274211599999</v>
+        <v>0.06982114864399999</v>
       </c>
       <c r="R2">
-        <v>0.6369546790439999</v>
+        <v>0.628390337796</v>
       </c>
       <c r="S2">
-        <v>0.4757968273529908</v>
+        <v>0.2518466851032267</v>
       </c>
       <c r="T2">
-        <v>0.4757968273529908</v>
+        <v>0.2518466851032267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09414566666666667</v>
+        <v>0.2538496666666667</v>
       </c>
       <c r="H3">
-        <v>0.282437</v>
+        <v>0.761549</v>
       </c>
       <c r="I3">
-        <v>0.5242031726470092</v>
+        <v>0.7481533148967734</v>
       </c>
       <c r="J3">
-        <v>0.5242031726470092</v>
+        <v>0.7481533148967733</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -611,10 +611,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.8282163333333333</v>
+        <v>0.8170803333333333</v>
       </c>
       <c r="N3">
-        <v>2.484649</v>
+        <v>2.451241</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.07797297884588889</v>
+        <v>0.2074155702565556</v>
       </c>
       <c r="R3">
-        <v>0.701756809613</v>
+        <v>1.866740132309</v>
       </c>
       <c r="S3">
-        <v>0.5242031726470092</v>
+        <v>0.7481533148967734</v>
       </c>
       <c r="T3">
-        <v>0.5242031726470092</v>
+        <v>0.7481533148967733</v>
       </c>
     </row>
   </sheetData>
